--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv_separate_node.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv_separate_node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6A5FB-FCEF-4B2C-A431-12744E170080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF4CA11-A731-45E2-96F8-076F40EB94F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,10 +587,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,32 +629,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -647,21 +656,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,6 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,10 +683,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,7 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5A65F-B190-4112-BBBF-17A39D8920A4}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1038,10 +1040,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -1068,10 +1070,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -1092,10 +1094,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -1122,10 +1124,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="87"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -1146,10 +1148,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -1176,10 +1178,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -1336,31 +1338,31 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -1392,7 +1394,7 @@
         <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692,</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -1418,7 +1420,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="51" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1450,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K10" s="92"/>
+      <c r="K10" s="98"/>
       <c r="L10" s="51" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1474,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1504,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K11" s="92"/>
+      <c r="K11" s="98"/>
       <c r="L11" s="51" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +1528,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1558,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425,</v>
       </c>
-      <c r="K12" s="93"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="52" t="s">
         <v>7</v>
       </c>
@@ -1633,10 +1635,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -1657,10 +1659,10 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="94" t="s">
+      <c r="K15" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="95"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -1901,31 +1903,31 @@
       <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="96" t="s">
+      <c r="K21" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -1951,7 +1953,7 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="99" t="s">
+      <c r="K22" s="89" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="57" t="s">
@@ -1977,7 +1979,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="100"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="60" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2003,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="100"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="60" t="s">
         <v>5</v>
       </c>
@@ -2025,7 +2027,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="100"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="60" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2051,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="100"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="60" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2075,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="55" t="s">
         <v>7</v>
       </c>
@@ -2097,7 +2099,7 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="101"/>
+      <c r="K25" s="91"/>
       <c r="L25" s="55" t="s">
         <v>7</v>
       </c>
@@ -2122,12 +2124,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:B16"/>
@@ -2136,12 +2138,12 @@
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="K22:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -2311,6 +2313,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2321,16 +2333,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2362,7 +2364,111 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H3 A5:H8 A9:B12">
+    <cfRule type="colorScale" priority="1162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H6">
+    <cfRule type="colorScale" priority="1153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -2373,26 +2479,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -2403,47 +2489,173 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H12">
+    <cfRule type="colorScale" priority="1047">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1046">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1045">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I3 I2 I4:I12">
+    <cfRule type="colorScale" priority="1168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I6 I9:I12">
+    <cfRule type="colorScale" priority="1187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12 C3:H3 C5:H7">
+    <cfRule type="colorScale" priority="1154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="colorScale" priority="1051">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I12 I5:I6 C5:H7">
+    <cfRule type="colorScale" priority="1147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I12 C3:I6 I2">
+    <cfRule type="colorScale" priority="1157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I12 I2:I6">
+    <cfRule type="colorScale" priority="1160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2479,17 +2691,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2525,6 +2737,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2535,7 +2757,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L12">
+    <cfRule type="colorScale" priority="1054">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1053">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2559,17 +2793,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2603,251 +2837,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:R21">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H12">
-    <cfRule type="colorScale" priority="1045">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1046">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1047">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="1051">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L12">
-    <cfRule type="colorScale" priority="1053">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1054">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I12 I5:I6 C5:H7">
-    <cfRule type="colorScale" priority="1147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H6">
-    <cfRule type="colorScale" priority="1153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12 C3:H3 C5:H7">
-    <cfRule type="colorScale" priority="1154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I12 C3:I6 I2">
-    <cfRule type="colorScale" priority="1157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I12 I2:I6">
-    <cfRule type="colorScale" priority="1160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H3 A5:H8 A9:B12">
-    <cfRule type="colorScale" priority="1162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I3 I2 I4:I12">
-    <cfRule type="colorScale" priority="1168">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12 C3:H3 C5:H7">
-    <cfRule type="colorScale" priority="1183">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6 I9:I12">
-    <cfRule type="colorScale" priority="1187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2933,10 +2933,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -2963,10 +2963,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -2987,10 +2987,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -3017,10 +3017,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="87"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -3041,10 +3041,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -3071,10 +3071,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -3231,31 +3231,31 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -3287,7 +3287,7 @@
         <f t="shared" ref="J9:J15" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692,</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="51" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3343,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894,</v>
       </c>
-      <c r="K10" s="92"/>
+      <c r="K10" s="98"/>
       <c r="L10" s="51" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3367,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="51" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +3397,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.3470993117011, 92.3844929454407, 91.818173167588, 89.6642012474156, 85.9374014192741, 66.9514211483952,</v>
       </c>
-      <c r="K11" s="92"/>
+      <c r="K11" s="98"/>
       <c r="L11" s="51" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="51" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3451,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356,</v>
       </c>
-      <c r="K12" s="92"/>
+      <c r="K12" s="98"/>
       <c r="L12" s="51" t="s">
         <v>4</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="51" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3505,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K13" s="92"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="51" t="s">
         <v>5</v>
       </c>
@@ -3529,7 +3529,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="92"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="51" t="s">
         <v>6</v>
       </c>
@@ -3559,7 +3559,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K14" s="92"/>
+      <c r="K14" s="98"/>
       <c r="L14" s="51" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3583,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="52" t="s">
         <v>7</v>
       </c>
@@ -3613,7 +3613,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425,</v>
       </c>
-      <c r="K15" s="93"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="52" t="s">
         <v>7</v>
       </c>
@@ -3637,31 +3637,31 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="88" t="s">
+      <c r="K16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -3693,7 +3693,7 @@
         <f t="shared" ref="J17:J23" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:H17)&amp;","</f>
         <v xml:space="preserve">    90.8053385698262, 89.8939321851112, 87.7025954665121, 84.3268079020292, 80.8562934512121, 62.1034755202611,</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="97" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="47" t="s">
@@ -3719,7 +3719,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="50" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3749,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235,</v>
       </c>
-      <c r="K18" s="92"/>
+      <c r="K18" s="98"/>
       <c r="L18" s="50" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="92"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="50" t="s">
         <v>3</v>
       </c>
@@ -3803,7 +3803,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.7857305570694, 91.8043898880325, 90.5162876264789, 83.7346661014946, 78.4596031684242, 52.256250774949,</v>
       </c>
-      <c r="K19" s="92"/>
+      <c r="K19" s="98"/>
       <c r="L19" s="50" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3827,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="50" t="s">
         <v>4</v>
       </c>
@@ -3857,7 +3857,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408,</v>
       </c>
-      <c r="K20" s="92"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="50" t="s">
         <v>4</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="92"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="50" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3911,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726,</v>
       </c>
-      <c r="K21" s="92"/>
+      <c r="K21" s="98"/>
       <c r="L21" s="50" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="92"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="50" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +3965,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114,</v>
       </c>
-      <c r="K22" s="92"/>
+      <c r="K22" s="98"/>
       <c r="L22" s="50" t="s">
         <v>6</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="49" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4019,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.7738504081639, 92.6293364706154, 91.4730346571625, 87.2117117506784, 79.9057719645787, 53.1948978797394,</v>
       </c>
-      <c r="K23" s="93"/>
+      <c r="K23" s="99"/>
       <c r="L23" s="49" t="s">
         <v>7</v>
       </c>
@@ -4096,10 +4096,10 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -4120,10 +4120,10 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="94" t="s">
+      <c r="K26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="95"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -4364,31 +4364,31 @@
       <c r="R31" s="14"/>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="96" t="s">
+      <c r="K32" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="57" t="s">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="99" t="s">
+      <c r="K33" s="89" t="s">
         <v>0</v>
       </c>
       <c r="L33" s="57" t="s">
@@ -4440,7 +4440,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="100"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="60" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="100"/>
+      <c r="K34" s="90"/>
       <c r="L34" s="60" t="s">
         <v>2</v>
       </c>
@@ -4488,7 +4488,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="100"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="60" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="100"/>
+      <c r="K35" s="90"/>
       <c r="L35" s="60" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="100"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="60" t="s">
         <v>4</v>
       </c>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="100"/>
+      <c r="K36" s="90"/>
       <c r="L36" s="60" t="s">
         <v>4</v>
       </c>
@@ -4584,7 +4584,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="100"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="60" t="s">
         <v>5</v>
       </c>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="100"/>
+      <c r="K37" s="90"/>
       <c r="L37" s="60" t="s">
         <v>5</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="100"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="60" t="s">
         <v>6</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="100"/>
+      <c r="K38" s="90"/>
       <c r="L38" s="60" t="s">
         <v>6</v>
       </c>
@@ -4680,7 +4680,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="55" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="101"/>
+      <c r="K39" s="91"/>
       <c r="L39" s="55" t="s">
         <v>7</v>
       </c>
@@ -4728,31 +4728,31 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="96" t="s">
+      <c r="K40" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="98"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="88"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="57" t="s">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="99" t="s">
+      <c r="K41" s="89" t="s">
         <v>0</v>
       </c>
       <c r="L41" s="57" t="s">
@@ -4804,7 +4804,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="60" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="100"/>
+      <c r="K42" s="90"/>
       <c r="L42" s="60" t="s">
         <v>2</v>
       </c>
@@ -4852,7 +4852,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="100"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="60" t="s">
         <v>3</v>
       </c>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="100"/>
+      <c r="K43" s="90"/>
       <c r="L43" s="60" t="s">
         <v>3</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="100"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="60" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="100"/>
+      <c r="K44" s="90"/>
       <c r="L44" s="60" t="s">
         <v>4</v>
       </c>
@@ -4948,7 +4948,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="100"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="60" t="s">
         <v>5</v>
       </c>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="100"/>
+      <c r="K45" s="90"/>
       <c r="L45" s="60" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="100"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="60" t="s">
         <v>6</v>
       </c>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="100"/>
+      <c r="K46" s="90"/>
       <c r="L46" s="60" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5044,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="101"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="55" t="s">
         <v>7</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="101"/>
+      <c r="K47" s="91"/>
       <c r="L47" s="55" t="s">
         <v>7</v>
       </c>
@@ -5093,20 +5093,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="K33:K39"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A4:B4"/>
@@ -5121,6 +5107,20 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="K9:K15"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -5148,17 +5148,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5282,6 +5282,76 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5292,79 +5362,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:H23 C3:H6">
-    <cfRule type="colorScale" priority="75">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H3 A5:H8 A16:H23 A9:B15">
+    <cfRule type="colorScale" priority="851">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="852">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5376,6 +5386,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -5416,6 +5436,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -5436,27 +5466,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5478,17 +5488,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5510,6 +5520,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H23 I2:I23 C3:H3 C5:H7">
     <cfRule type="colorScale" priority="116">
@@ -5545,6 +5565,70 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I3 I2:I23">
+    <cfRule type="colorScale" priority="865">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="866">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="867">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="868">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="869">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:I23 I9:I15 C3:I6 I2">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I15">
     <cfRule type="colorScale" priority="403">
       <colorScale>
@@ -5557,8 +5641,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:I23 I9:I15 C3:I6 I2">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="I2:I23 C3:H3 C5:H7">
+    <cfRule type="colorScale" priority="880">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I23">
+    <cfRule type="colorScale" priority="884">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5628,17 +5724,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5696,17 +5792,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5730,17 +5826,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5796,17 +5892,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:R32">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5829,104 +5925,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H3 A5:H8 A16:H23 A9:B15">
-    <cfRule type="colorScale" priority="851">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="852">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I3 I2:I23">
-    <cfRule type="colorScale" priority="865">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="866">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="867">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="868">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="869">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23 C3:H3 C5:H7">
-    <cfRule type="colorScale" priority="880">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23">
-    <cfRule type="colorScale" priority="884">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6012,10 +6010,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -6042,10 +6040,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -6066,10 +6064,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -6096,10 +6094,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="87"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -6120,10 +6118,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -6150,10 +6148,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -6310,31 +6308,31 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -6366,7 +6364,7 @@
         <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894,</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -6392,7 +6390,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="51" t="s">
         <v>4</v>
       </c>
@@ -6422,7 +6420,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356,</v>
       </c>
-      <c r="K10" s="92"/>
+      <c r="K10" s="98"/>
       <c r="L10" s="51" t="s">
         <v>4</v>
       </c>
@@ -6446,7 +6444,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="51" t="s">
         <v>5</v>
       </c>
@@ -6476,7 +6474,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K11" s="92"/>
+      <c r="K11" s="98"/>
       <c r="L11" s="51" t="s">
         <v>5</v>
       </c>
@@ -6500,7 +6498,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="52" t="s">
         <v>6</v>
       </c>
@@ -6530,7 +6528,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K12" s="93"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="52" t="s">
         <v>6</v>
       </c>
@@ -6554,31 +6552,31 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="106" t="s">
+      <c r="K13" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="108"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="105"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -6610,7 +6608,7 @@
         <f t="shared" ref="J14:J17" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:H14)&amp;","</f>
         <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235,</v>
       </c>
-      <c r="K14" s="91" t="s">
+      <c r="K14" s="97" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="45" t="s">
@@ -6636,7 +6634,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="51" t="s">
         <v>4</v>
       </c>
@@ -6666,7 +6664,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408,</v>
       </c>
-      <c r="K15" s="92"/>
+      <c r="K15" s="98"/>
       <c r="L15" s="51" t="s">
         <v>4</v>
       </c>
@@ -6690,7 +6688,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="51" t="s">
         <v>5</v>
       </c>
@@ -6720,7 +6718,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726,</v>
       </c>
-      <c r="K16" s="92"/>
+      <c r="K16" s="98"/>
       <c r="L16" s="51" t="s">
         <v>5</v>
       </c>
@@ -6744,7 +6742,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="52" t="s">
         <v>6</v>
       </c>
@@ -6774,7 +6772,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114,</v>
       </c>
-      <c r="K17" s="93"/>
+      <c r="K17" s="99"/>
       <c r="L17" s="52" t="s">
         <v>6</v>
       </c>
@@ -6851,10 +6849,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -6875,10 +6873,10 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="94" t="s">
+      <c r="K20" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="95"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -7119,31 +7117,31 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="96" t="s">
+      <c r="K26" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="57" t="s">
@@ -7169,7 +7167,7 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="99" t="s">
+      <c r="K27" s="89" t="s">
         <v>0</v>
       </c>
       <c r="L27" s="57" t="s">
@@ -7195,7 +7193,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="100"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="60" t="s">
         <v>4</v>
       </c>
@@ -7219,7 +7217,7 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="100"/>
+      <c r="K28" s="90"/>
       <c r="L28" s="60" t="s">
         <v>4</v>
       </c>
@@ -7243,7 +7241,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="100"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="60" t="s">
         <v>5</v>
       </c>
@@ -7267,7 +7265,7 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="100"/>
+      <c r="K29" s="90"/>
       <c r="L29" s="60" t="s">
         <v>5</v>
       </c>
@@ -7291,7 +7289,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="55" t="s">
         <v>6</v>
       </c>
@@ -7315,7 +7313,7 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="101"/>
+      <c r="K30" s="91"/>
       <c r="L30" s="55" t="s">
         <v>6</v>
       </c>
@@ -7339,31 +7337,31 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="103" t="s">
+      <c r="K31" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="105"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="108"/>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="57" t="s">
@@ -7389,7 +7387,7 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="99" t="s">
+      <c r="K32" s="89" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="57" t="s">
@@ -7415,7 +7413,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="100"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="60" t="s">
         <v>4</v>
       </c>
@@ -7439,7 +7437,7 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="100"/>
+      <c r="K33" s="90"/>
       <c r="L33" s="60" t="s">
         <v>4</v>
       </c>
@@ -7463,7 +7461,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="100"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="60" t="s">
         <v>5</v>
       </c>
@@ -7487,7 +7485,7 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="100"/>
+      <c r="K34" s="90"/>
       <c r="L34" s="60" t="s">
         <v>5</v>
       </c>
@@ -7511,7 +7509,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="55" t="s">
         <v>6</v>
       </c>
@@ -7535,7 +7533,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="101"/>
+      <c r="K35" s="91"/>
       <c r="L35" s="55" t="s">
         <v>6</v>
       </c>
@@ -7560,24 +7558,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="K31:R31"/>
     <mergeCell ref="A32:A35"/>
@@ -7588,6 +7568,24 @@
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="K27:K30"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -7683,17 +7681,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7827,6 +7825,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:H2">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -7847,26 +7885,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -7897,28 +7915,48 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -7929,77 +7967,37 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8043,17 +8041,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:H17 A13:H13 C3:H3 A5:H8">
+    <cfRule type="colorScale" priority="572">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="571">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="572">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8291,17 +8289,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8359,6 +8357,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L10 K12:L12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8369,18 +8377,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:L11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -8391,18 +8399,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:L15 K17:L17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8413,29 +8421,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:L16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8459,17 +8457,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8653,10 +8651,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="28">
         <v>93.273358766079312</v>
       </c>
@@ -8690,10 +8688,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013, 48.7439337710534,</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="102"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -8717,10 +8715,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -8751,10 +8749,10 @@
         <v>224.254143447031</v>
       </c>
       <c r="L3" s="24"/>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="87"/>
+      <c r="N3" s="102"/>
       <c r="O3" s="25">
         <v>3.6304356896667822</v>
       </c>
@@ -8778,10 +8776,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -8812,10 +8810,10 @@
         <v>240.56641489834115</v>
       </c>
       <c r="L4" s="24"/>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="87"/>
+      <c r="N4" s="102"/>
       <c r="O4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -8839,7 +8837,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="112" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="45" t="s">
@@ -8878,7 +8876,7 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    92.8633408016794, 92.1309094369329, 91.4859326926127, 87.9828631735569, 81.2503395358091, 67.4134118807256, 58.0826045208004,</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="112" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="45" t="s">
@@ -8907,7 +8905,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="46" t="s">
         <v>14</v>
       </c>
@@ -8941,7 +8939,7 @@
         <v>231.31219519632526</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="119"/>
+      <c r="M6" s="113"/>
       <c r="N6" s="42" t="s">
         <v>14</v>
       </c>
@@ -8968,7 +8966,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="112" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -9004,7 +9002,7 @@
         <v>252.47072573436336</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="112" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="48" t="s">
@@ -9033,7 +9031,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
@@ -9067,7 +9065,7 @@
         <v>234.59362269569806</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="119"/>
+      <c r="M8" s="113"/>
       <c r="N8" s="42" t="s">
         <v>14</v>
       </c>
@@ -9117,34 +9115,34 @@
       <c r="U9" s="41"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
-      <c r="M10" s="111" t="s">
+      <c r="M10" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="113"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="111"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="45" t="s">
@@ -9180,7 +9178,7 @@
         <f t="shared" ref="L11:L17" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692, 51.8558176685496,</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="97" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="45" t="s">
@@ -9209,7 +9207,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="51" t="s">
         <v>2</v>
       </c>
@@ -9243,7 +9241,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894, 47.5477930893289,</v>
       </c>
-      <c r="M12" s="92"/>
+      <c r="M12" s="98"/>
       <c r="N12" s="51" t="s">
         <v>2</v>
       </c>
@@ -9270,7 +9268,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="51" t="s">
         <v>3</v>
       </c>
@@ -9304,7 +9302,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.3470993117011, 92.3844929454407, 91.818173167588, 89.6642012474156, 85.9374014192741, 66.9514211483952, 49.5556881979948,</v>
       </c>
-      <c r="M13" s="92"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="51" t="s">
         <v>3</v>
       </c>
@@ -9331,7 +9329,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="92"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="51" t="s">
         <v>4</v>
       </c>
@@ -9365,7 +9363,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356, 50.0007958546354,</v>
       </c>
-      <c r="M14" s="92"/>
+      <c r="M14" s="98"/>
       <c r="N14" s="51" t="s">
         <v>4</v>
       </c>
@@ -9392,7 +9390,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="51" t="s">
         <v>5</v>
       </c>
@@ -9426,7 +9424,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689, 50.5718388567375,</v>
       </c>
-      <c r="M15" s="92"/>
+      <c r="M15" s="98"/>
       <c r="N15" s="51" t="s">
         <v>5</v>
       </c>
@@ -9453,7 +9451,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="51" t="s">
         <v>6</v>
       </c>
@@ -9490,7 +9488,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379, 48.8028789176377,</v>
       </c>
-      <c r="M16" s="92"/>
+      <c r="M16" s="98"/>
       <c r="N16" s="51" t="s">
         <v>6</v>
       </c>
@@ -9517,7 +9515,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="52" t="s">
         <v>7</v>
       </c>
@@ -9551,7 +9549,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425, 52.2439496304755,</v>
       </c>
-      <c r="M17" s="93"/>
+      <c r="M17" s="99"/>
       <c r="N17" s="52" t="s">
         <v>7</v>
       </c>
@@ -9601,34 +9599,34 @@
       <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="111" t="s">
+      <c r="M19" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="113"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="111"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -9664,7 +9662,7 @@
         <f t="shared" ref="L20:L26" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    90.8053385698262, 89.8939321851112, 87.7025954665121, 84.3268079020292, 80.8562934512121, 62.1034755202611, 51.455543156371,</v>
       </c>
-      <c r="M20" s="91" t="s">
+      <c r="M20" s="97" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="47" t="s">
@@ -9693,7 +9691,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="92"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="50" t="s">
         <v>2</v>
       </c>
@@ -9727,7 +9725,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235, 46.1574148565299,</v>
       </c>
-      <c r="M21" s="92"/>
+      <c r="M21" s="98"/>
       <c r="N21" s="50" t="s">
         <v>2</v>
       </c>
@@ -9754,7 +9752,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="92"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="50" t="s">
         <v>3</v>
       </c>
@@ -9788,7 +9786,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.7857305570694, 91.8043898880325, 90.5162876264789, 83.7346661014946, 78.4596031684242, 52.256250774949, 42.4108743731924,</v>
       </c>
-      <c r="M22" s="92"/>
+      <c r="M22" s="98"/>
       <c r="N22" s="50" t="s">
         <v>3</v>
       </c>
@@ -9815,7 +9813,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="92"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="50" t="s">
         <v>4</v>
       </c>
@@ -9849,7 +9847,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408, 54.0455713284717,</v>
       </c>
-      <c r="M23" s="92"/>
+      <c r="M23" s="98"/>
       <c r="N23" s="50" t="s">
         <v>4</v>
       </c>
@@ -9876,7 +9874,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="92"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="50" t="s">
         <v>5</v>
       </c>
@@ -9910,7 +9908,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726, 45.0666730104355,</v>
       </c>
-      <c r="M24" s="92"/>
+      <c r="M24" s="98"/>
       <c r="N24" s="50" t="s">
         <v>5</v>
       </c>
@@ -9937,7 +9935,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="50" t="s">
         <v>6</v>
       </c>
@@ -9974,7 +9972,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114, 42.5109703947843,</v>
       </c>
-      <c r="M25" s="92"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="50" t="s">
         <v>6</v>
       </c>
@@ -10001,7 +9999,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="49" t="s">
         <v>7</v>
       </c>
@@ -10035,7 +10033,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    92.7738504081639, 92.6293364706154, 91.4730346571625, 87.2117117506784, 79.9057719645787, 53.1948978797394, 40.8106125485514,</v>
       </c>
-      <c r="M26" s="93"/>
+      <c r="M26" s="99"/>
       <c r="N26" s="49" t="s">
         <v>7</v>
       </c>
@@ -10124,10 +10122,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="9">
         <v>92.866950218042462</v>
       </c>
@@ -10152,10 +10150,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="94" t="s">
+      <c r="M29" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="95"/>
+      <c r="N29" s="93"/>
       <c r="O29" s="9">
         <v>3.8319643020864191</v>
       </c>
@@ -10289,7 +10287,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="118" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="57" t="s">
@@ -10319,7 +10317,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="109" t="s">
+      <c r="M32" s="118" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="57" t="s">
@@ -10348,7 +10346,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="53" t="s">
         <v>14</v>
       </c>
@@ -10376,7 +10374,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="110"/>
+      <c r="M33" s="119"/>
       <c r="N33" s="53" t="s">
         <v>14</v>
       </c>
@@ -10403,7 +10401,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="118" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -10433,7 +10431,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="109" t="s">
+      <c r="M34" s="118" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="58" t="s">
@@ -10462,7 +10460,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="53" t="s">
         <v>14</v>
       </c>
@@ -10490,7 +10488,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="110"/>
+      <c r="M35" s="119"/>
       <c r="N35" s="53" t="s">
         <v>14</v>
       </c>
@@ -10567,7 +10565,7 @@
       <c r="U37" s="116"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="57" t="s">
@@ -10597,7 +10595,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="99" t="s">
+      <c r="M38" s="89" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="57" t="s">
@@ -10626,7 +10624,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="100"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="60" t="s">
         <v>2</v>
       </c>
@@ -10654,7 +10652,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="100"/>
+      <c r="M39" s="90"/>
       <c r="N39" s="60" t="s">
         <v>2</v>
       </c>
@@ -10681,7 +10679,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="100"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="60" t="s">
         <v>3</v>
       </c>
@@ -10709,7 +10707,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="100"/>
+      <c r="M40" s="90"/>
       <c r="N40" s="60" t="s">
         <v>3</v>
       </c>
@@ -10736,7 +10734,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="100"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="60" t="s">
         <v>4</v>
       </c>
@@ -10764,7 +10762,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="100"/>
+      <c r="M41" s="90"/>
       <c r="N41" s="60" t="s">
         <v>4</v>
       </c>
@@ -10791,7 +10789,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="60" t="s">
         <v>5</v>
       </c>
@@ -10819,7 +10817,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="100"/>
+      <c r="M42" s="90"/>
       <c r="N42" s="60" t="s">
         <v>5</v>
       </c>
@@ -10846,7 +10844,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="100"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="60" t="s">
         <v>6</v>
       </c>
@@ -10874,7 +10872,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="100"/>
+      <c r="M43" s="90"/>
       <c r="N43" s="60" t="s">
         <v>6</v>
       </c>
@@ -10901,7 +10899,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="101"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="55" t="s">
         <v>7</v>
       </c>
@@ -10929,7 +10927,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="101"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="55" t="s">
         <v>7</v>
       </c>
@@ -11006,7 +11004,7 @@
       <c r="U46" s="117"/>
     </row>
     <row r="47" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="99" t="s">
+      <c r="A47" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="57" t="s">
@@ -11036,7 +11034,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="99" t="s">
+      <c r="M47" s="89" t="s">
         <v>0</v>
       </c>
       <c r="N47" s="57" t="s">
@@ -11065,7 +11063,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="100"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="60" t="s">
         <v>2</v>
       </c>
@@ -11093,7 +11091,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="100"/>
+      <c r="M48" s="90"/>
       <c r="N48" s="60" t="s">
         <v>2</v>
       </c>
@@ -11120,7 +11118,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="100"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="60" t="s">
         <v>3</v>
       </c>
@@ -11148,7 +11146,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="100"/>
+      <c r="M49" s="90"/>
       <c r="N49" s="60" t="s">
         <v>3</v>
       </c>
@@ -11175,7 +11173,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="100"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="60" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +11201,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="100"/>
+      <c r="M50" s="90"/>
       <c r="N50" s="60" t="s">
         <v>4</v>
       </c>
@@ -11230,7 +11228,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="100"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="60" t="s">
         <v>5</v>
       </c>
@@ -11258,7 +11256,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="100"/>
+      <c r="M51" s="90"/>
       <c r="N51" s="60" t="s">
         <v>5</v>
       </c>
@@ -11285,7 +11283,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="100"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="60" t="s">
         <v>6</v>
       </c>
@@ -11313,7 +11311,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="100"/>
+      <c r="M52" s="90"/>
       <c r="N52" s="60" t="s">
         <v>6</v>
       </c>
@@ -11340,7 +11338,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="55" t="s">
         <v>7</v>
       </c>
@@ -11368,7 +11366,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="101"/>
+      <c r="M53" s="91"/>
       <c r="N53" s="55" t="s">
         <v>7</v>
       </c>
@@ -11396,24 +11394,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="M10:U10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M38:M44"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M20:M26"/>
@@ -11427,11 +11412,24 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M38:M44"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="M10:U10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A30">
@@ -11469,17 +11467,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11551,6 +11549,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -11562,56 +11610,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11643,27 +11641,27 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="253">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="254">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11723,17 +11721,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:I26">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11757,6 +11755,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -11777,26 +11825,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -11808,36 +11836,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11895,17 +11893,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11951,17 +11949,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv_separate_node.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv_separate_node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF4CA11-A731-45E2-96F8-076F40EB94F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71668188-6E54-42BB-8C9D-DF1D9DA6A3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,38 +638,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -647,13 +656,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,12 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,10 +683,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,11 +969,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5A65F-B190-4112-BBBF-17A39D8920A4}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -985,7 +983,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
@@ -1038,12 +1036,13 @@
       <c r="R1" s="43">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -1070,10 +1069,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -1092,12 +1091,16 @@
       <c r="R2" s="30">
         <v>9.3055912140758643</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="S2" s="24" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M2:R2)&amp;","</f>
+        <v xml:space="preserve">    3.46724694577626, 4.10663738581389, 4.44334428313897, 4.85726616902442, 6.73340650119937, 9.30559121407586,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -1124,10 +1127,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="102"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -1146,12 +1149,16 @@
       <c r="R3" s="30">
         <v>10.29776577193992</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="S3" s="24" t="str">
+        <f t="shared" ref="S3:S6" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M3:R3)&amp;","</f>
+        <v xml:space="preserve">    3.63043568966678, 4.1563832177869, 5.19916945215436, 6.73000980380204, 6.9700930926995, 10.2977657719399,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -1178,10 +1185,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -1200,8 +1207,12 @@
       <c r="R4" s="27">
         <v>7.6914890661564108</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    3.54017542852798, 3.91749202588546, 3.96981308080524, 5.53360356068327, 5.84571638986025, 7.69148906615641,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>29</v>
       </c>
@@ -1258,8 +1269,12 @@
       <c r="R5" s="27">
         <v>9.7038681323141347</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    4.09208255206605, 3.68115186593137, 3.85785796812947, 5.18464464651022, 5.65155234734377, 9.70386813231413,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>20</v>
       </c>
@@ -1316,8 +1331,12 @@
       <c r="R6" s="33">
         <v>7.5625760189743341</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    3.22525136603013, 3.79729461578504, 3.26330281199275, 3.25588254667935, 5.23171579156174, 7.56257601897433,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="29"/>
@@ -1336,33 +1355,35 @@
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="30"/>
-    </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="S7" s="24"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -1391,10 +1412,10 @@
         <v>81.037972935175318</v>
       </c>
       <c r="J9" s="24" t="str">
-        <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
+        <f t="shared" ref="J9:J12" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692,</v>
       </c>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -1418,9 +1439,13 @@
       <c r="R9" s="30">
         <v>7.8394132385069568</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
+      <c r="S9" s="24" t="str">
+        <f t="shared" ref="S9:S12" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M9:R9)&amp;","</f>
+        <v xml:space="preserve">    3.62057291437874, 4.07060289352793, 4.10238054257207, 3.81899183058431, 5.74907869316779, 7.83941323850696,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="95"/>
       <c r="B10" s="51" t="s">
         <v>5</v>
       </c>
@@ -1447,10 +1472,10 @@
         <v>81.339156048062691</v>
       </c>
       <c r="J10" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="51" t="s">
         <v>5</v>
       </c>
@@ -1472,9 +1497,13 @@
       <c r="R10" s="35">
         <v>8.4486501587333311</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="S10" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    3.58028281345767, 4.05594036623333, 4.04804887351, 3.93091877606496, 4.54691828932316, 8.44865015873333,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="95"/>
       <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
@@ -1501,10 +1530,10 @@
         <v>80.523781996384059</v>
       </c>
       <c r="J11" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="51" t="s">
         <v>6</v>
       </c>
@@ -1526,9 +1555,13 @@
       <c r="R11" s="35">
         <v>7.4833403587430967</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="S11" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    3.29780610697296, 3.83921572724531, 3.87330630901547, 4.7219853917429, 4.60951103774867, 7.4833403587431,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
       <c r="B12" s="52" t="s">
         <v>7</v>
       </c>
@@ -1555,10 +1588,10 @@
         <v>81.331034077572767</v>
       </c>
       <c r="J12" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425,</v>
       </c>
-      <c r="K12" s="99"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="52" t="s">
         <v>7</v>
       </c>
@@ -1580,9 +1613,13 @@
       <c r="R12" s="33">
         <v>8.2474642193386618</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    3.26415749668565, 3.78528153331641, 3.73265957310517, 3.96639977555613, 5.18506567469204, 8.24746421933866,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>26</v>
       </c>
@@ -1633,12 +1670,13 @@
       <c r="R14" s="59">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="93"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -1658,11 +1696,14 @@
         <v>59.676194764980139</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="92" t="s">
+      <c r="J15" s="4" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:H15)&amp;","</f>
+        <v xml:space="preserve">    92.8669502180425, 91.2426907647456, 90.1370532276984, 86.0801529266134, 77.4102172551968, 59.6761947649801,</v>
+      </c>
+      <c r="K15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="93"/>
+      <c r="L15" s="88"/>
       <c r="M15" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -1681,12 +1722,16 @@
       <c r="R15" s="7">
         <v>9.7457736576346736</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="S15" s="4" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M15:R15)&amp;","</f>
+        <v xml:space="preserve">    3.83196430208642, 4.36032467052554, 4.79877351918793, 5.12629653673303, 7.08725879982336, 9.74577365763467,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="8">
         <v>90.52770446578225</v>
       </c>
@@ -1706,11 +1751,14 @@
         <v>62.869764156729879</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="84" t="s">
+      <c r="J16" s="4" t="str">
+        <f t="shared" ref="J16:J19" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:H16)&amp;","</f>
+        <v xml:space="preserve">    90.5277044657823, 90.3424101850711, 88.8551347801589, 86.3925514508581, 83.7309385652018, 62.8697641567299,</v>
+      </c>
+      <c r="K16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="85"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="5">
         <v>4.0901656450530481</v>
       </c>
@@ -1729,12 +1777,16 @@
       <c r="R16" s="7">
         <v>11.39436528430654</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="S16" s="4" t="str">
+        <f t="shared" ref="S16:S19" si="5">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M16:R16)&amp;","</f>
+        <v xml:space="preserve">    4.09016564505305, 4.69012961752472, 5.73315036589775, 7.11507096780287, 7.29458769227053, 11.3943652843065,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="5">
         <v>89.97817765654861</v>
       </c>
@@ -1754,11 +1806,14 @@
         <v>72.361626989881074</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="84" t="s">
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    89.9781776565486, 89.8438772933149, 89.8068803699406, 88.4563070313918, 85.8743472220509, 72.3616269898811,</v>
+      </c>
+      <c r="K17" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="85"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="5">
         <v>3.9649646983544202</v>
       </c>
@@ -1777,8 +1832,12 @@
       <c r="R17" s="7">
         <v>8.3484452530393831</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.96496469835442, 4.17059393047684, 4.29239720452744, 6.09795601950919, 6.28127731295762, 8.34844525303938,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1863,10 @@
         <v>65.731292630891019</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    91.774607805302, 91.9952523854657, 91.6773359260759, 88.8792994518618, 83.9852585958879, 65.731292630891,</v>
+      </c>
       <c r="K18" s="64" t="s">
         <v>29</v>
       </c>
@@ -1829,8 +1891,12 @@
       <c r="R18" s="7">
         <v>10.175415058463971</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    4.45448323673328, 4.02977094776427, 4.17108764369363, 5.45798828372255, 5.9477145691105, 10.175415058464,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1922,10 @@
         <v>68.710875881175554</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    92.9761602897203, 91.4582341826569, 90.7260645323218, 89.0202957519774, 84.508536749906, 68.7108758811756,</v>
+      </c>
       <c r="K19" s="64" t="s">
         <v>20</v>
       </c>
@@ -1881,8 +1950,12 @@
       <c r="R19" s="7">
         <v>8.1802984888020767</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.62182116719714, 4.0726710380082, 3.48848081345004, 3.39649802556541, 5.68394658334407, 8.18029848880208,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1901,33 +1974,35 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="86" t="s">
+      <c r="K21" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="89" t="s">
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -1952,8 +2027,11 @@
         <v>64.482797212114178</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="89" t="s">
+      <c r="J22" s="4" t="str">
+        <f t="shared" ref="J22:J25" si="6">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:H22)&amp;","</f>
+        <v xml:space="preserve">    92.9306619609705, 92.4663465898199, 91.7839233163466, 90.4917308132953, 85.013566770989, 64.4827972121142,</v>
+      </c>
+      <c r="K22" s="100" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="57" t="s">
@@ -1977,9 +2055,13 @@
       <c r="R22" s="10">
         <v>8.0935811451150599</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="90"/>
+      <c r="S22" s="4" t="str">
+        <f t="shared" ref="S22:S25" si="7">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M22:R22)&amp;","</f>
+        <v xml:space="preserve">    3.95502660640143, 4.36580514025745, 4.38130616905466, 4.00521960738311, 6.16530481574303, 8.09358114511506,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="101"/>
       <c r="B23" s="60" t="s">
         <v>5</v>
       </c>
@@ -2002,8 +2084,11 @@
         <v>65.444409478323934</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="90"/>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    93.0800020115016, 92.4046996845272, 91.9546654703046, 90.3301592659716, 87.5816238712437, 65.4444094783239,</v>
+      </c>
+      <c r="K23" s="101"/>
       <c r="L23" s="60" t="s">
         <v>5</v>
       </c>
@@ -2025,9 +2110,13 @@
       <c r="R23" s="17">
         <v>8.6315293901629762</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="90"/>
+      <c r="S23" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    3.91026613027047, 4.35988590963995, 4.27127930151239, 4.15741788653065, 4.77070372171157, 8.63152939016298,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="101"/>
       <c r="B24" s="60" t="s">
         <v>6</v>
       </c>
@@ -2050,8 +2139,11 @@
         <v>61.620187860136021</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="90"/>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    92.9718384155658, 92.1039072776518, 91.7291973910761, 88.9099510885668, 84.7148945379837, 61.620187860136,</v>
+      </c>
+      <c r="K24" s="101"/>
       <c r="L24" s="60" t="s">
         <v>6</v>
       </c>
@@ -2073,9 +2165,13 @@
       <c r="R24" s="17">
         <v>7.8718932836851945</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
+      <c r="S24" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    3.69009645236353, 4.09823334950798, 4.14249587838037, 4.91476602675289, 4.72188562745455, 7.87189328368519,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102"/>
       <c r="B25" s="55" t="s">
         <v>7</v>
       </c>
@@ -2098,8 +2194,11 @@
         <v>56.911896986388975</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="91"/>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    92.7352797946911, 91.6646805308336, 91.0442768556441, 89.0597168199328, 82.5592192260026, 56.911896986389,</v>
+      </c>
+      <c r="K25" s="102"/>
       <c r="L25" s="55" t="s">
         <v>7</v>
       </c>
@@ -2121,15 +2220,19 @@
       <c r="R25" s="20">
         <v>8.593216541703864</v>
       </c>
+      <c r="S25" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    4.04341322417782, 4.26914379502021, 4.34047766458827, 4.50586985387871, 5.62323111882316, 8.59321654170386,</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="K22:K25"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:B16"/>
@@ -2138,12 +2241,12 @@
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -2313,17 +2416,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2399,6 +2502,86 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -2409,109 +2592,29 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:H12">
+    <cfRule type="colorScale" priority="1045">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1046">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1047">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1046">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1045">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2691,17 +2794,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2737,6 +2840,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2747,29 +2860,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L12">
+    <cfRule type="colorScale" priority="1053">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1054">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1053">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2793,17 +2896,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2837,17 +2940,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:R21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2933,10 +3036,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -2963,10 +3066,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -2987,10 +3090,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -3017,10 +3120,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="102"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -3041,10 +3144,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -3071,10 +3174,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -3231,31 +3334,31 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -3287,7 +3390,7 @@
         <f t="shared" ref="J9:J15" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692,</v>
       </c>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -3313,7 +3416,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="51" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3446,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894,</v>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="51" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3470,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="51" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +3500,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.3470993117011, 92.3844929454407, 91.818173167588, 89.6642012474156, 85.9374014192741, 66.9514211483952,</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="51" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3524,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="51" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3554,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356,</v>
       </c>
-      <c r="K12" s="98"/>
+      <c r="K12" s="95"/>
       <c r="L12" s="51" t="s">
         <v>4</v>
       </c>
@@ -3475,7 +3578,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="51" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3608,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K13" s="98"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="51" t="s">
         <v>5</v>
       </c>
@@ -3529,7 +3632,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="51" t="s">
         <v>6</v>
       </c>
@@ -3559,7 +3662,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K14" s="98"/>
+      <c r="K14" s="95"/>
       <c r="L14" s="51" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3686,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="52" t="s">
         <v>7</v>
       </c>
@@ -3613,7 +3716,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425,</v>
       </c>
-      <c r="K15" s="99"/>
+      <c r="K15" s="96"/>
       <c r="L15" s="52" t="s">
         <v>7</v>
       </c>
@@ -3637,31 +3740,31 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -3693,7 +3796,7 @@
         <f t="shared" ref="J17:J23" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:H17)&amp;","</f>
         <v xml:space="preserve">    90.8053385698262, 89.8939321851112, 87.7025954665121, 84.3268079020292, 80.8562934512121, 62.1034755202611,</v>
       </c>
-      <c r="K17" s="97" t="s">
+      <c r="K17" s="94" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="47" t="s">
@@ -3719,7 +3822,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="50" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3852,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235,</v>
       </c>
-      <c r="K18" s="98"/>
+      <c r="K18" s="95"/>
       <c r="L18" s="50" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3876,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="50" t="s">
         <v>3</v>
       </c>
@@ -3803,7 +3906,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.7857305570694, 91.8043898880325, 90.5162876264789, 83.7346661014946, 78.4596031684242, 52.256250774949,</v>
       </c>
-      <c r="K19" s="98"/>
+      <c r="K19" s="95"/>
       <c r="L19" s="50" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3930,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="50" t="s">
         <v>4</v>
       </c>
@@ -3857,7 +3960,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408,</v>
       </c>
-      <c r="K20" s="98"/>
+      <c r="K20" s="95"/>
       <c r="L20" s="50" t="s">
         <v>4</v>
       </c>
@@ -3881,7 +3984,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="50" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +4014,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726,</v>
       </c>
-      <c r="K21" s="98"/>
+      <c r="K21" s="95"/>
       <c r="L21" s="50" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +4038,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="50" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +4068,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114,</v>
       </c>
-      <c r="K22" s="98"/>
+      <c r="K22" s="95"/>
       <c r="L22" s="50" t="s">
         <v>6</v>
       </c>
@@ -3989,7 +4092,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="49" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4122,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.7738504081639, 92.6293364706154, 91.4730346571625, 87.2117117506784, 79.9057719645787, 53.1948978797394,</v>
       </c>
-      <c r="K23" s="99"/>
+      <c r="K23" s="96"/>
       <c r="L23" s="49" t="s">
         <v>7</v>
       </c>
@@ -4096,10 +4199,10 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="93"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -4120,10 +4223,10 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="92" t="s">
+      <c r="K26" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="93"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -4144,10 +4247,10 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="8">
         <v>90.52770446578225</v>
       </c>
@@ -4168,10 +4271,10 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="84" t="s">
+      <c r="K27" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="85"/>
+      <c r="L27" s="90"/>
       <c r="M27" s="5">
         <v>4.0901656450530481</v>
       </c>
@@ -4192,10 +4295,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="5">
         <v>89.97817765654861</v>
       </c>
@@ -4216,10 +4319,10 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="84" t="s">
+      <c r="K28" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="5">
         <v>3.9649646983544202</v>
       </c>
@@ -4364,31 +4467,31 @@
       <c r="R31" s="14"/>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="86" t="s">
+      <c r="K32" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="88"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="99"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="57" t="s">
@@ -4414,7 +4517,7 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="89" t="s">
+      <c r="K33" s="100" t="s">
         <v>0</v>
       </c>
       <c r="L33" s="57" t="s">
@@ -4440,7 +4543,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="60" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4567,7 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="90"/>
+      <c r="K34" s="101"/>
       <c r="L34" s="60" t="s">
         <v>2</v>
       </c>
@@ -4488,7 +4591,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="60" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4615,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="90"/>
+      <c r="K35" s="101"/>
       <c r="L35" s="60" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4639,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="60" t="s">
         <v>4</v>
       </c>
@@ -4560,7 +4663,7 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="90"/>
+      <c r="K36" s="101"/>
       <c r="L36" s="60" t="s">
         <v>4</v>
       </c>
@@ -4584,7 +4687,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="90"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="60" t="s">
         <v>5</v>
       </c>
@@ -4608,7 +4711,7 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="90"/>
+      <c r="K37" s="101"/>
       <c r="L37" s="60" t="s">
         <v>5</v>
       </c>
@@ -4632,7 +4735,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="60" t="s">
         <v>6</v>
       </c>
@@ -4656,7 +4759,7 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="90"/>
+      <c r="K38" s="101"/>
       <c r="L38" s="60" t="s">
         <v>6</v>
       </c>
@@ -4680,7 +4783,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="55" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4807,7 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="91"/>
+      <c r="K39" s="102"/>
       <c r="L39" s="55" t="s">
         <v>7</v>
       </c>
@@ -4728,31 +4831,31 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="99"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="86" t="s">
+      <c r="K40" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="88"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="99"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="57" t="s">
@@ -4778,7 +4881,7 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="89" t="s">
+      <c r="K41" s="100" t="s">
         <v>0</v>
       </c>
       <c r="L41" s="57" t="s">
@@ -4804,7 +4907,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="60" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4931,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="90"/>
+      <c r="K42" s="101"/>
       <c r="L42" s="60" t="s">
         <v>2</v>
       </c>
@@ -4852,7 +4955,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="60" t="s">
         <v>3</v>
       </c>
@@ -4876,7 +4979,7 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="90"/>
+      <c r="K43" s="101"/>
       <c r="L43" s="60" t="s">
         <v>3</v>
       </c>
@@ -4900,7 +5003,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="60" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +5027,7 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="90"/>
+      <c r="K44" s="101"/>
       <c r="L44" s="60" t="s">
         <v>4</v>
       </c>
@@ -4948,7 +5051,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="60" t="s">
         <v>5</v>
       </c>
@@ -4972,7 +5075,7 @@
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="90"/>
+      <c r="K45" s="101"/>
       <c r="L45" s="60" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +5099,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="60" t="s">
         <v>6</v>
       </c>
@@ -5020,7 +5123,7 @@
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="90"/>
+      <c r="K46" s="101"/>
       <c r="L46" s="60" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5147,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="55" t="s">
         <v>7</v>
       </c>
@@ -5068,7 +5171,7 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="91"/>
+      <c r="K47" s="102"/>
       <c r="L47" s="55" t="s">
         <v>7</v>
       </c>
@@ -5093,6 +5196,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="K33:K39"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A4:B4"/>
@@ -5107,20 +5224,6 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="K9:K15"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="K41:K47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="K33:K39"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -5148,17 +5251,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5282,6 +5385,26 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5292,67 +5415,47 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5386,87 +5489,87 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5488,6 +5591,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -5498,29 +5611,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H23 C3:H6">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5724,17 +5827,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5792,17 +5895,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L15">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5826,17 +5929,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5892,17 +5995,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:R32">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6010,10 +6113,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -6040,10 +6143,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -6064,10 +6167,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -6094,10 +6197,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="102"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -6118,10 +6221,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -6148,10 +6251,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -6308,31 +6411,31 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -6364,7 +6467,7 @@
         <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894,</v>
       </c>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -6390,7 +6493,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="51" t="s">
         <v>4</v>
       </c>
@@ -6420,7 +6523,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356,</v>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="51" t="s">
         <v>4</v>
       </c>
@@ -6444,7 +6547,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="51" t="s">
         <v>5</v>
       </c>
@@ -6474,7 +6577,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="51" t="s">
         <v>5</v>
       </c>
@@ -6498,7 +6601,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="52" t="s">
         <v>6</v>
       </c>
@@ -6528,7 +6631,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K12" s="99"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="52" t="s">
         <v>6</v>
       </c>
@@ -6552,31 +6655,31 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="105"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="108"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -6608,7 +6711,7 @@
         <f t="shared" ref="J14:J17" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:H14)&amp;","</f>
         <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235,</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="94" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="45" t="s">
@@ -6634,7 +6737,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="51" t="s">
         <v>4</v>
       </c>
@@ -6664,7 +6767,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408,</v>
       </c>
-      <c r="K15" s="98"/>
+      <c r="K15" s="95"/>
       <c r="L15" s="51" t="s">
         <v>4</v>
       </c>
@@ -6688,7 +6791,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="51" t="s">
         <v>5</v>
       </c>
@@ -6718,7 +6821,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726,</v>
       </c>
-      <c r="K16" s="98"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="51" t="s">
         <v>5</v>
       </c>
@@ -6742,7 +6845,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="52" t="s">
         <v>6</v>
       </c>
@@ -6772,7 +6875,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114,</v>
       </c>
-      <c r="K17" s="99"/>
+      <c r="K17" s="96"/>
       <c r="L17" s="52" t="s">
         <v>6</v>
       </c>
@@ -6849,10 +6952,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="93"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -6873,10 +6976,10 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="92" t="s">
+      <c r="K20" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="93"/>
+      <c r="L20" s="88"/>
       <c r="M20" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -6897,10 +7000,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="8">
         <v>90.52770446578225</v>
       </c>
@@ -6921,10 +7024,10 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="85"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="5">
         <v>4.0901656450530481</v>
       </c>
@@ -6945,10 +7048,10 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="5">
         <v>89.97817765654861</v>
       </c>
@@ -6969,10 +7072,10 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="84" t="s">
+      <c r="K22" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="85"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="5">
         <v>3.9649646983544202</v>
       </c>
@@ -7117,31 +7220,31 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="88"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="99"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="57" t="s">
@@ -7167,7 +7270,7 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="89" t="s">
+      <c r="K27" s="100" t="s">
         <v>0</v>
       </c>
       <c r="L27" s="57" t="s">
@@ -7193,7 +7296,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="60" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7320,7 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="90"/>
+      <c r="K28" s="101"/>
       <c r="L28" s="60" t="s">
         <v>4</v>
       </c>
@@ -7241,7 +7344,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="60" t="s">
         <v>5</v>
       </c>
@@ -7265,7 +7368,7 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="90"/>
+      <c r="K29" s="101"/>
       <c r="L29" s="60" t="s">
         <v>5</v>
       </c>
@@ -7289,7 +7392,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="55" t="s">
         <v>6</v>
       </c>
@@ -7313,7 +7416,7 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="91"/>
+      <c r="K30" s="102"/>
       <c r="L30" s="55" t="s">
         <v>6</v>
       </c>
@@ -7337,31 +7440,31 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="108"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="106" t="s">
+      <c r="K31" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="108"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="105"/>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="57" t="s">
@@ -7387,7 +7490,7 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="89" t="s">
+      <c r="K32" s="100" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="57" t="s">
@@ -7413,7 +7516,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="60" t="s">
         <v>4</v>
       </c>
@@ -7437,7 +7540,7 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="90"/>
+      <c r="K33" s="101"/>
       <c r="L33" s="60" t="s">
         <v>4</v>
       </c>
@@ -7461,7 +7564,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="60" t="s">
         <v>5</v>
       </c>
@@ -7485,7 +7588,7 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="90"/>
+      <c r="K34" s="101"/>
       <c r="L34" s="60" t="s">
         <v>5</v>
       </c>
@@ -7509,7 +7612,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="55" t="s">
         <v>6</v>
       </c>
@@ -7533,7 +7636,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="91"/>
+      <c r="K35" s="102"/>
       <c r="L35" s="55" t="s">
         <v>6</v>
       </c>
@@ -7558,6 +7661,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="K31:R31"/>
     <mergeCell ref="A32:A35"/>
@@ -7568,24 +7689,6 @@
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="K27:K30"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -7681,17 +7784,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7825,6 +7928,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:H2">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -7845,6 +7968,46 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -7855,149 +8018,89 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8041,17 +8144,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:H17 A13:H13 C3:H3 A5:H8">
+    <cfRule type="colorScale" priority="571">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="572">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="571">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8289,17 +8392,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8357,6 +8460,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L10 K12:L12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8367,18 +8480,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:L11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -8389,18 +8502,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:L15 K17:L17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8411,29 +8524,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:L16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8457,17 +8560,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8651,10 +8754,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="28">
         <v>93.273358766079312</v>
       </c>
@@ -8688,10 +8791,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013, 48.7439337710534,</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="101"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -8715,10 +8818,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -8749,10 +8852,10 @@
         <v>224.254143447031</v>
       </c>
       <c r="L3" s="24"/>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="102"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="25">
         <v>3.6304356896667822</v>
       </c>
@@ -8776,10 +8879,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -8810,10 +8913,10 @@
         <v>240.56641489834115</v>
       </c>
       <c r="L4" s="24"/>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="102"/>
+      <c r="N4" s="86"/>
       <c r="O4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -8837,7 +8940,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="118" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="45" t="s">
@@ -8876,7 +8979,7 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    92.8633408016794, 92.1309094369329, 91.4859326926127, 87.9828631735569, 81.2503395358091, 67.4134118807256, 58.0826045208004,</v>
       </c>
-      <c r="M5" s="112" t="s">
+      <c r="M5" s="118" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="45" t="s">
@@ -8905,7 +9008,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="46" t="s">
         <v>14</v>
       </c>
@@ -8939,7 +9042,7 @@
         <v>231.31219519632526</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="113"/>
+      <c r="M6" s="119"/>
       <c r="N6" s="42" t="s">
         <v>14</v>
       </c>
@@ -8966,7 +9069,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="118" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -9002,7 +9105,7 @@
         <v>252.47072573436336</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="112" t="s">
+      <c r="M7" s="118" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="48" t="s">
@@ -9031,7 +9134,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
@@ -9065,7 +9168,7 @@
         <v>234.59362269569806</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="113"/>
+      <c r="M8" s="119"/>
       <c r="N8" s="42" t="s">
         <v>14</v>
       </c>
@@ -9115,34 +9218,34 @@
       <c r="U9" s="41"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
-      <c r="M10" s="109" t="s">
+      <c r="M10" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="111"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="113"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="45" t="s">
@@ -9178,7 +9281,7 @@
         <f t="shared" ref="L11:L17" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692, 51.8558176685496,</v>
       </c>
-      <c r="M11" s="97" t="s">
+      <c r="M11" s="94" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="45" t="s">
@@ -9207,7 +9310,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="51" t="s">
         <v>2</v>
       </c>
@@ -9241,7 +9344,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894, 47.5477930893289,</v>
       </c>
-      <c r="M12" s="98"/>
+      <c r="M12" s="95"/>
       <c r="N12" s="51" t="s">
         <v>2</v>
       </c>
@@ -9268,7 +9371,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="51" t="s">
         <v>3</v>
       </c>
@@ -9302,7 +9405,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.3470993117011, 92.3844929454407, 91.818173167588, 89.6642012474156, 85.9374014192741, 66.9514211483952, 49.5556881979948,</v>
       </c>
-      <c r="M13" s="98"/>
+      <c r="M13" s="95"/>
       <c r="N13" s="51" t="s">
         <v>3</v>
       </c>
@@ -9329,7 +9432,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="51" t="s">
         <v>4</v>
       </c>
@@ -9363,7 +9466,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356, 50.0007958546354,</v>
       </c>
-      <c r="M14" s="98"/>
+      <c r="M14" s="95"/>
       <c r="N14" s="51" t="s">
         <v>4</v>
       </c>
@@ -9390,7 +9493,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="51" t="s">
         <v>5</v>
       </c>
@@ -9424,7 +9527,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689, 50.5718388567375,</v>
       </c>
-      <c r="M15" s="98"/>
+      <c r="M15" s="95"/>
       <c r="N15" s="51" t="s">
         <v>5</v>
       </c>
@@ -9451,7 +9554,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="51" t="s">
         <v>6</v>
       </c>
@@ -9488,7 +9591,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379, 48.8028789176377,</v>
       </c>
-      <c r="M16" s="98"/>
+      <c r="M16" s="95"/>
       <c r="N16" s="51" t="s">
         <v>6</v>
       </c>
@@ -9515,7 +9618,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="52" t="s">
         <v>7</v>
       </c>
@@ -9549,7 +9652,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425, 52.2439496304755,</v>
       </c>
-      <c r="M17" s="99"/>
+      <c r="M17" s="96"/>
       <c r="N17" s="52" t="s">
         <v>7</v>
       </c>
@@ -9599,34 +9702,34 @@
       <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="109" t="s">
+      <c r="M19" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="111"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="113"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -9662,7 +9765,7 @@
         <f t="shared" ref="L20:L26" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    90.8053385698262, 89.8939321851112, 87.7025954665121, 84.3268079020292, 80.8562934512121, 62.1034755202611, 51.455543156371,</v>
       </c>
-      <c r="M20" s="97" t="s">
+      <c r="M20" s="94" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="47" t="s">
@@ -9691,7 +9794,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="50" t="s">
         <v>2</v>
       </c>
@@ -9725,7 +9828,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235, 46.1574148565299,</v>
       </c>
-      <c r="M21" s="98"/>
+      <c r="M21" s="95"/>
       <c r="N21" s="50" t="s">
         <v>2</v>
       </c>
@@ -9752,7 +9855,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="50" t="s">
         <v>3</v>
       </c>
@@ -9786,7 +9889,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.7857305570694, 91.8043898880325, 90.5162876264789, 83.7346661014946, 78.4596031684242, 52.256250774949, 42.4108743731924,</v>
       </c>
-      <c r="M22" s="98"/>
+      <c r="M22" s="95"/>
       <c r="N22" s="50" t="s">
         <v>3</v>
       </c>
@@ -9813,7 +9916,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="50" t="s">
         <v>4</v>
       </c>
@@ -9847,7 +9950,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408, 54.0455713284717,</v>
       </c>
-      <c r="M23" s="98"/>
+      <c r="M23" s="95"/>
       <c r="N23" s="50" t="s">
         <v>4</v>
       </c>
@@ -9874,7 +9977,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="50" t="s">
         <v>5</v>
       </c>
@@ -9908,7 +10011,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726, 45.0666730104355,</v>
       </c>
-      <c r="M24" s="98"/>
+      <c r="M24" s="95"/>
       <c r="N24" s="50" t="s">
         <v>5</v>
       </c>
@@ -9935,7 +10038,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="50" t="s">
         <v>6</v>
       </c>
@@ -9972,7 +10075,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114, 42.5109703947843,</v>
       </c>
-      <c r="M25" s="98"/>
+      <c r="M25" s="95"/>
       <c r="N25" s="50" t="s">
         <v>6</v>
       </c>
@@ -9999,7 +10102,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="49" t="s">
         <v>7</v>
       </c>
@@ -10033,7 +10136,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">    92.7738504081639, 92.6293364706154, 91.4730346571625, 87.2117117506784, 79.9057719645787, 53.1948978797394, 40.8106125485514,</v>
       </c>
-      <c r="M26" s="99"/>
+      <c r="M26" s="96"/>
       <c r="N26" s="49" t="s">
         <v>7</v>
       </c>
@@ -10122,10 +10225,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="93"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="9">
         <v>92.866950218042462</v>
       </c>
@@ -10150,10 +10253,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="93"/>
+      <c r="N29" s="88"/>
       <c r="O29" s="9">
         <v>3.8319643020864191</v>
       </c>
@@ -10177,10 +10280,10 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="5">
         <v>90.52770446578225</v>
       </c>
@@ -10205,10 +10308,10 @@
       <c r="J30" s="4"/>
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="84" t="s">
+      <c r="M30" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="85"/>
+      <c r="N30" s="90"/>
       <c r="O30" s="5">
         <v>4.0901656450530481</v>
       </c>
@@ -10232,10 +10335,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="5">
         <v>89.97817765654861</v>
       </c>
@@ -10260,10 +10363,10 @@
       <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="84" t="s">
+      <c r="M31" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="85"/>
+      <c r="N31" s="90"/>
       <c r="O31" s="5">
         <v>3.9649646983544202</v>
       </c>
@@ -10287,7 +10390,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="109" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="57" t="s">
@@ -10317,7 +10420,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="118" t="s">
+      <c r="M32" s="109" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="57" t="s">
@@ -10346,7 +10449,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="53" t="s">
         <v>14</v>
       </c>
@@ -10374,7 +10477,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="119"/>
+      <c r="M33" s="110"/>
       <c r="N33" s="53" t="s">
         <v>14</v>
       </c>
@@ -10401,7 +10504,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="109" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -10431,7 +10534,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="118" t="s">
+      <c r="M34" s="109" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="58" t="s">
@@ -10460,7 +10563,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="53" t="s">
         <v>14</v>
       </c>
@@ -10488,7 +10591,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="119"/>
+      <c r="M35" s="110"/>
       <c r="N35" s="53" t="s">
         <v>14</v>
       </c>
@@ -10565,7 +10668,7 @@
       <c r="U37" s="116"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="57" t="s">
@@ -10595,7 +10698,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="89" t="s">
+      <c r="M38" s="100" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="57" t="s">
@@ -10624,7 +10727,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="60" t="s">
         <v>2</v>
       </c>
@@ -10652,7 +10755,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="90"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="60" t="s">
         <v>2</v>
       </c>
@@ -10679,7 +10782,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="60" t="s">
         <v>3</v>
       </c>
@@ -10707,7 +10810,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="90"/>
+      <c r="M40" s="101"/>
       <c r="N40" s="60" t="s">
         <v>3</v>
       </c>
@@ -10734,7 +10837,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="60" t="s">
         <v>4</v>
       </c>
@@ -10762,7 +10865,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="90"/>
+      <c r="M41" s="101"/>
       <c r="N41" s="60" t="s">
         <v>4</v>
       </c>
@@ -10789,7 +10892,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="60" t="s">
         <v>5</v>
       </c>
@@ -10817,7 +10920,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="90"/>
+      <c r="M42" s="101"/>
       <c r="N42" s="60" t="s">
         <v>5</v>
       </c>
@@ -10844,7 +10947,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="60" t="s">
         <v>6</v>
       </c>
@@ -10872,7 +10975,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="90"/>
+      <c r="M43" s="101"/>
       <c r="N43" s="60" t="s">
         <v>6</v>
       </c>
@@ -10899,7 +11002,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="55" t="s">
         <v>7</v>
       </c>
@@ -10927,7 +11030,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="91"/>
+      <c r="M44" s="102"/>
       <c r="N44" s="55" t="s">
         <v>7</v>
       </c>
@@ -10977,34 +11080,34 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
       <c r="I46" s="117"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="84" t="s">
+      <c r="M46" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
       <c r="U46" s="117"/>
     </row>
     <row r="47" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="57" t="s">
@@ -11034,7 +11137,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="89" t="s">
+      <c r="M47" s="100" t="s">
         <v>0</v>
       </c>
       <c r="N47" s="57" t="s">
@@ -11063,7 +11166,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="60" t="s">
         <v>2</v>
       </c>
@@ -11091,7 +11194,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="90"/>
+      <c r="M48" s="101"/>
       <c r="N48" s="60" t="s">
         <v>2</v>
       </c>
@@ -11118,7 +11221,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="60" t="s">
         <v>3</v>
       </c>
@@ -11146,7 +11249,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="90"/>
+      <c r="M49" s="101"/>
       <c r="N49" s="60" t="s">
         <v>3</v>
       </c>
@@ -11173,7 +11276,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="60" t="s">
         <v>4</v>
       </c>
@@ -11201,7 +11304,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="90"/>
+      <c r="M50" s="101"/>
       <c r="N50" s="60" t="s">
         <v>4</v>
       </c>
@@ -11228,7 +11331,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="60" t="s">
         <v>5</v>
       </c>
@@ -11256,7 +11359,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="90"/>
+      <c r="M51" s="101"/>
       <c r="N51" s="60" t="s">
         <v>5</v>
       </c>
@@ -11283,7 +11386,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="60" t="s">
         <v>6</v>
       </c>
@@ -11311,7 +11414,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="90"/>
+      <c r="M52" s="101"/>
       <c r="N52" s="60" t="s">
         <v>6</v>
       </c>
@@ -11338,7 +11441,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="55" t="s">
         <v>7</v>
       </c>
@@ -11366,7 +11469,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="91"/>
+      <c r="M53" s="102"/>
       <c r="N53" s="55" t="s">
         <v>7</v>
       </c>
@@ -11394,11 +11497,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M38:M44"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="M10:U10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="M46:U46"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M20:M26"/>
@@ -11412,24 +11528,11 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="M10:U10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M38:M44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A30">
@@ -11467,17 +11570,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11549,6 +11652,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -11590,26 +11713,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11641,27 +11744,27 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="255">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="254">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11721,17 +11824,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:I26">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11755,6 +11858,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -11776,66 +11939,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11893,17 +11996,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11949,17 +12052,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
